--- a/data/trans_bre/P35_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,57</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-25,29</t>
+          <t>-12,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-22,58</t>
+          <t>-11,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-81,62%</t>
+          <t>-12,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-90,08%</t>
+          <t>-42,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-85,27%</t>
+          <t>-86,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-77,56%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-89,53%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,69; -7,09</t>
+          <t>-13,79; 5,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,68; -14,54</t>
+          <t>-26,62; -1,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,43; -12,09</t>
+          <t>-25,65; -0,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-94,37; -49,26</t>
+          <t>-27,04; -1,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-96,96; -69,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-95,37; -66,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 25,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 12,15</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,5</t>
+          <t>-15,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>-13,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,45</t>
+          <t>-11,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-67,74%</t>
+          <t>-13,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-73,69%</t>
+          <t>-68,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-70,74%</t>
+          <t>-75,09%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-65,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-67,78%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -7,47</t>
+          <t>-24,17; -7,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -6,69</t>
+          <t>-19,56; -7,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,9; -5,9</t>
+          <t>-19,19; -5,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-80,6; -49,15</t>
+          <t>-21,8; -6,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,72; -49,82</t>
+          <t>-84,24; -40,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,43; -48,87</t>
+          <t>-88,99; -47,58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-82,29; -37,32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-84,95; -33,14</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,19</t>
+          <t>-14,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,57</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,26</t>
+          <t>-11,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-70,18%</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-62,31%</t>
+          <t>-66,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-71,86%</t>
+          <t>-54,83%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-65,45%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-19,92%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,45; -7,82</t>
+          <t>-25,9; -6,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,7; -4,95</t>
+          <t>-18,09; -2,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,57; -6,96</t>
+          <t>-19,99; -4,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-84,2; -45,13</t>
+          <t>-9,39; 4,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-78,31; -34,43</t>
+          <t>-85,73; -37,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-84,66; -47,35</t>
+          <t>-77,83; -17,9</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-85,84; -34,95</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-59,74; 64,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-71,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-74,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-74,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -9,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,81; -9,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -9,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,33; -59,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,12; -60,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,83; -61,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-13,25</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-11,64</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-11,66</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-9,56</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-66,53%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-67,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-66,76%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-60,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-19,14; -7,88</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-16,74; -6,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-16,84; -6,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; -4,8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-78,99; -47,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-80,73; -47,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-79,28; -46,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-75,8; -35,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P35_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,74</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-12,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-11,71</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-42,64%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-86,45%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-77,56%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-89,53%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.844434872228388</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-16.68242908160881</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-12.64159213948731</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-12.48074044826994</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.4546537418714591</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.9084432455620775</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.8127583432119061</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.9112730664316384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,79; 5,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-26,62; -1,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-25,65; -0,04</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-27,04; -1,83</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 25,54</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 12,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.88093068301725</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-32.45201269329414</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-26.91027542642754</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-26.45524170227573</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.356282371954657</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-4.296750520742147</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1.302484103870499</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-1.899876386466659</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.107750057087831</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.03580898789933117</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-15,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-13,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-11,43</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-13,48</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-68,74%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-75,09%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-65,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-67,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-24,17; -7,43</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-19,56; -7,17</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,19; -5,49</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-21,8; -6,06</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-84,24; -40,11</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-88,99; -47,58</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-82,29; -37,32</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-84,95; -33,14</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-16.97371737803779</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-13.38530767662532</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-13.04120031470726</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-13.76563784118238</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.7204984695455467</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.7639557884416289</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.6912699182222309</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.6880918704232697</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-14,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-9,7</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-11,96</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-66,59%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-54,83%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-65,45%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-19,92%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-25.59363855879429</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-20.2572509317135</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-21.46172880506847</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-21.99346076142365</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8586682178902946</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.892924504919012</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8462901729241873</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8507283916402557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-25,9; -6,76</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,09; -2,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-19,99; -4,9</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,39; 4,74</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-85,73; -37,85</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-77,83; -17,9</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-85,84; -34,95</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-59,74; 64,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-8.367685226312407</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-7.677546485339773</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-6.553799024026448</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-5.858572709977844</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.4613172355817357</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.4900589588762232</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.4399071830796046</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.3255464318779824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +819,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-13.81514391824089</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-9.307536484231095</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-12.11643555588087</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.731805422553189</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6730675840778848</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5463606418007987</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6702970203112887</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2432220195770239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-25.09873768637611</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.3746259922201</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-20.37538463380337</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.03603382756985</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8662698685661179</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7764964408639489</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8598277770685963</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6232090972220692</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-6.080032924836144</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.43492918454122</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-5.203834395713232</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.616218893310132</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.3889166488383822</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.1811172188405569</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.3612234588289163</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5475610674905439</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-13,25</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-11,64</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-11,66</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-9,56</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-66,53%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-67,85%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-66,76%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-60,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-19,14; -7,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-16,74; -6,81</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-16,84; -6,81</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,79; -4,8</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-78,99; -47,34</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-80,73; -47,27</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-79,28; -46,29</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-75,8; -35,6</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-13.77268383565407</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-12.22795654053419</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-12.70644855887941</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-9.969825957469235</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.6893699425935237</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.7006127626967427</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.7007785287998043</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.6223341553041599</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-19.89944580112702</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-17.34594629599383</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-18.40330263099721</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-15.2217491887052</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8031611181228864</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.8179338721166087</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.8130071557746419</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.769941391795213</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-8.596070866626432</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-7.363516626346376</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-7.855645468691224</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-4.956247448464091</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.5159793910632441</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.5083590043155468</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.5105798297904153</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.3867412500899672</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
